--- a/libros_mas_vendidos.xlsx
+++ b/libros_mas_vendidos.xlsx
@@ -1,124 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>autor</t>
-  </si>
-  <si>
-    <t>titulo</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>900 recetas que siempre salen bien</t>
-  </si>
-  <si>
-    <t>Ella y su gato</t>
-  </si>
-  <si>
-    <t>Las Guerreras Maxwell, 6. Un corazón entre tú y yo</t>
-  </si>
-  <si>
-    <t>The Promised Neverland 17</t>
-  </si>
-  <si>
-    <t>El bosque de los cuatro vientos</t>
-  </si>
-  <si>
-    <t>Volver la vista atrás</t>
-  </si>
-  <si>
-    <t>Felipe VI. Un rey en la adversidad</t>
-  </si>
-  <si>
-    <t>La amiga estupenda (Dos amigas 1)</t>
-  </si>
-  <si>
-    <t>La camada de los salvajes</t>
-  </si>
-  <si>
-    <t>Todo lo que nunca fuimos</t>
-  </si>
-  <si>
-    <t>La buena cocina</t>
-  </si>
-  <si>
-    <t>https://www.todostuslibros.com/libros/ella-y-su-gato_978-84-18128-55-4</t>
-  </si>
-  <si>
-    <t>https://www.todostuslibros.com/libros/las-guerreras-maxwell-6-un-corazon-entre-tu-y-yo_978-84-08-23716-7</t>
-  </si>
-  <si>
-    <t>https://www.todostuslibros.com/libros/the-promised-neverland-17_978-84-679-4361-0</t>
-  </si>
-  <si>
-    <t>https://www.todostuslibros.com/libros/el-bosque-de-los-cuatro-vientos_978-84-233-5754-3</t>
-  </si>
-  <si>
-    <t>https://www.todostuslibros.com/libros/volver-la-vista-atras_978-84-204-5560-0</t>
-  </si>
-  <si>
-    <t>https://www.todostuslibros.com/libros/felipe-vi-un-rey-en-la-adversidad_978-84-08-24133-1</t>
-  </si>
-  <si>
-    <t>https://www.todostuslibros.com/libros/la-amiga-estupenda-dos-amigas-1_978-84-663-4435-7</t>
-  </si>
-  <si>
-    <t>https://www.todostuslibros.com/libros/la-camada-de-los-salvajes_978-84-1318-986-4</t>
-  </si>
-  <si>
-    <t>https://www.todostuslibros.com/libros/todo-lo-que-nunca-fuimos_978-84-08-23811-9</t>
-  </si>
-  <si>
-    <t>https://www.todostuslibros.com/libros/la-buena-cocina_978-84-08-23455-5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,41 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,150 +420,1741 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>titulo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>autor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/independencia_978-84-9066-929-7</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Independencia</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Terra Alta 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/tomas-nevinson_978-84-204-5459-7</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tomás Nevinson</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-infinito-en-un-junco_978-84-17860-79-0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>El infinito en un junco</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>La invención de los libros en el mundo antiguo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-huerto-de-emerson_978-84-9066-848-1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>El huerto de Emerson</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/delparaiso_978-84-670-6113-0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Delparaíso</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/llevame-a-casa_978-84-322-3773-7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Llévame a casa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-duque-y-yo-bridgerton-1_978-84-16327-81-2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>El duque y yo (Bridgerton 1)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/klara-y-el-sol_978-84-339-8087-8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Klara y el sol</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/los-privilegios-del-angel_978-84-233-5868-7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Los privilegios del ángel</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/aquitania_978-84-08-23551-4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Aquitania</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Premio Planeta 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/adelgaza-con-kaoru_978-84-18524-00-4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Adelgaza con Kaoru</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ponte en forma y consigue una figura de ensueño con el revolucionario método de la pelota de tenis</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/hamnet_978-84-17977-58-0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Hamnet</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/terra-alta_978-84-08-23796-9</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Terra Alta</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/una-herencia-peligrosa-amanda-black-1_978-84-17921-37-8</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Una herencia peligrosa (Amanda Black 1)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/1794_978-84-18107-59-7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1794</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/un-amor_978-84-339-9903-0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Un amor</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-principito_978-84-9838-149-8</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>El Principito</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/rey-blanco_978-84-666-6854-5</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rey blanco</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/reina-roja_978-84-666-6441-7</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Reina roja</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-lunes-nos-querran_978-84-233-5877-9</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>El lunes nos querrán</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Premio Nadal de Novela 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/linea-de-fuego_978-84-204-5466-5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Línea de fuego</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/la-red-de-proteccion-comisario-montalbano-30_978-84-18107-57-3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>La red de protección (Comisario Montalbano 30)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/miss-marte_978-84-204-5432-0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Miss Marte</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-vizconde-que-me-amo-bridgerton-2_978-84-16327-82-9</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>El vizconde que me amó (Bridgerton 2)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/biografia-de-la-luz_978-84-18526-13-8</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Biografía de la luz</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Una lectura mística del evangelio</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/yoga_978-84-339-8084-7</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Yoga</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/conodramas_978-84-08-23345-9</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Coñodramas</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/voces-que-cuentan-novela-grafica_978-84-1341-512-3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Voces que cuentan (novela gráfica)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Una antología</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/seis-cuatro_978-84-18107-25-2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Seis Cuatro</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/dime-que-comes-y-te-dire-que-bacterias-tienes_978-84-17752-92-7</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Dime qué comes y te diré qué bacterias tienes</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>El intestino, nuestro segundo cerebro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/loba-negra_978-84-666-6649-7</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Loba negra</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/un-oceano-para-llegar-a-ti_978-84-08-23552-1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Un océano para llegar a ti</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Finalista Premio Planeta 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/todo-lo-que-necesito-existe-ya-en-mi_978-84-322-3772-0</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>todo lo que necesito existe ya en mí</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/la-hora-de-las-gaviotas_978-84-01-02565-5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>La hora de las gaviotas</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/la-reina-sola_978-84-08-22983-4</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>La reina sola</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/la-vida-contada-por-un-sapiens-a-un-neandertal_978-84-204-3965-5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>La vida contada por un sapiens a un neandertal</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/es-la-microbiota-idiota_978-84-1344-068-2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>¡Es la microbiota, idiota!</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Descubre cómo tu salud depende de los billones de microorganismos que habitan en tu cuerpo</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/emocionarte-la-doble-vida-de-los-cuadros_978-84-670-6029-4</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Emocionarte. La doble vida de los cuadros</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Premio Espasa 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/arsene-lupin-caballero-ladron_978-84-17821-80-7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Arsène Lupin. Caballero ladrón</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/sapiens-de-animales-a-dioses_978-84-9992-622-3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sapiens. De animales a dioses</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Breve historia de la humanidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-olvido-que-seremos_978-84-204-2640-2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>El olvido que seremos</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/la-mansion-tiempo-de-resurgir_978-84-01-02483-2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>La mansión. Tiempo de resurgir</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/la-cancion-de-aquiles-adn_978-84-1362-213-2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>La canción de Aquiles (AdN)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-hijo-del-padre_978-84-233-5916-5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>El hijo del padre</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-gran-error-de-la-republica_978-84-9199-276-9</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>El gran error de la República</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Entre el ruido de sables y la ineficacia del Gobierno</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/canto-jo-i-la-muntanya-balla_978-84-339-1568-9</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Canto jo i la muntanya balla</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/gema_978-84-339-9915-3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Gema</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/despues-de-lo-trans_978-84-17496-49-4</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Después de lo trans</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sexo y género entre la izquierda y lo identitario</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/los-compas-y-el-diamantito-legendario-nueva-presentacion_978-84-270-4794-5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Los Compas y el diamantito legendario (nueva presentación)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/un-cuento-perfecto_978-84-663-5481-3</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Un cuento perfecto</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/las-tinieblas-y-el-alba-la-precuela-de-los-pilares-de-la-tierra_978-84-01-02287-6</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Las tinieblas y el alba (La precuela de Los pilares de la Tierra)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/los-compas-y-la-maldicion-de-mikecrack_978-84-270-4749-5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Los Compas y la maldición de Mikecrack</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/madrid_978-84-233-5819-9</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-hombre-en-busca-de-sentido_978-84-254-3202-6</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>El hombre en busca de sentido</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/luz-de-febrero_978-84-17761-41-7</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Luz de febrero</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/no-te-arrepientas_978-84-1384-014-7</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No te arrepientas</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>35 razones para estar orgulloso de la Historia de España</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/trigo-limpio_978-84-322-3791-1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Trigo limpio</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/te-doy-mi-corazon-bridgerton-3_978-84-16327-84-3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Te doy mi corazón (Bridgerton 3)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/la-ciudad-de-vapor_978-84-08-23500-2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>La Ciudad de Vapor</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/una-rosa-sola_978-84-322-3786-7</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Una rosa sola</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/la-buena-suerte_978-84-204-3945-7</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>La buena suerte</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/panza-de-burro_978-84-121353-3-6</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Panza de burro</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/pasiones-carnales_978-84-670-6028-7</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Pasiones carnales</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Los amores de los reyes que cambiaron la Historia de España</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/isadora-moon-y-el-hada-de-los-dientes-isadora-moon-10_978-84-204-5371-2</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Isadora Moon y el hada de los dientes (Isadora Moon 10)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/humano-mas-humano_978-84-18370-31-1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Humano, más humano</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Una antropología de la herida infinita</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/la-leyenda-de-la-peregrina_978-84-670-6027-0</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>La leyenda de la Peregrina</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/hazlo-tu-mismo-con-maestros-de-la-costura_978-84-670-6090-4</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Hazlo tú mismo con Maestros de la costura</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Con los patrones desplegables del programa</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-poder-del-ahora_978-84-8445-206-5</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>El poder del ahora</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Una guía para la iluminación espiritual</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/50-palos_978-84-08-19376-0</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>50 palos</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>... y sigo soñando</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/corona-de-medianoche_978-84-18359-29-3</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Corona de medianoche</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/anna-kadabra-1-el-club-de-la-luna-llena_978-84-08-22323-8</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Anna Kadabra 1. El Club de la Luna Llena</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/matadero-cinco_978-84-18187-74-2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Matadero cinco</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>La cruzada de los niños</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/arsene-lupin-caballero-ladron_978-84-18538-50-6</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Arsène Lupin, caballero ladrón</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Nueva edición con motivo de la exitosa serie de Netflix</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-chisme_978-84-670-6107-9</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>El chisme</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-club-del-crimen-de-los-jueves_978-84-670-6022-5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>El Club del Crimen de los Jueves</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/lola-vendetta-una-habitacion-propia-con-wifi_978-84-264-0765-8</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Lola Vendetta. Una habitación propia con wifi</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/los-compas-y-la-camara-del-tiempo_978-84-270-4737-2</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Los Compas y la cámara del tiempo</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-evangelio-segun-maria-magdalena_978-84-666-6889-7</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>El evangelio según María Magdalena</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/feria_978-84-122267-2-0</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Feria</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-paciente_978-84-666-6855-2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>El paciente</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-gran-libro-de-lucia-mi-pediatra_978-84-08-22678-9</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>El gran libro de Lucía, mi pediatra</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>La guía más completa y actualizada sobre la salud de tu hijo desde el nacimiento a la adolescencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-baile-de-las-locas_978-84-18107-64-1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>El baile de las locas</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/notas-para-unas-memorias-que-nunca-escribire_978-84-264-0739-9</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Notas para unas memorias que nunca escribiré</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-dominio-mental_978-84-344-3309-0</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>El dominio mental</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>La geopolítica de la mente</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/anna-kadabra-5-la-isla-de-las-mascotas_978-84-08-23799-0</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Anna Kadabra 5. La Isla de las Mascotas</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/1984-edicion-definitiva-the-orwell-foundation_978-84-9989-094-4</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1984 (Edición definitiva. The Orwell Foundation)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/a-traves-de-los-ojos_978-84-03-52137-7</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A través de los ojos</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/manifiesto-por-la-lectura_978-84-18436-36-9</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Manifiesto por la lectura</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/perro-apestoso_978-84-17552-44-2</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Perro Apestoso</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/homo-deus-edicion-limitada-a-precio-especial_978-84-663-4224-7</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Homo Deus (edición limitada a precio especial)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Breve historia del mañana</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/ella-y-su-gato_978-84-18128-55-4</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ella y su gato</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/las-guerreras-maxwell-6-un-corazon-entre-tu-y-yo_978-84-08-23716-7</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Las Guerreras Maxwell, 6. Un corazón entre tú y yo</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/the-promised-neverland-17_978-84-679-4361-0</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>The Promised Neverland 17</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/el-bosque-de-los-cuatro-vientos_978-84-233-5754-3</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>El bosque de los cuatro vientos</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/volver-la-vista-atras_978-84-204-5560-0</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Volver la vista atrás</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/felipe-vi-un-rey-en-la-adversidad_978-84-08-24133-1</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Felipe VI. Un rey en la adversidad</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/la-amiga-estupenda-dos-amigas-1_978-84-663-4435-7</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>La amiga estupenda (Dos amigas 1)</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/la-camada-de-los-salvajes_978-84-1318-986-4</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>La camada de los salvajes</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/todo-lo-que-nunca-fuimos_978-84-08-23811-9</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Todo lo que nunca fuimos</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.todostuslibros.com/libros/la-buena-cocina_978-84-08-23455-5</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>La buena cocina</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>900 recetas que siempre salen bien</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/libros_mas_vendidos.xlsx
+++ b/libros_mas_vendidos.xlsx
@@ -718,12 +718,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/lft-11-la-aventura-de-los-balbuena-con-los-vikingos_978-84-1392-031-3</t>
+          <t>https://www.todostuslibros.com/libros/los-forasteros-del-tiempo-11-la-aventura-de-los-balbuena-con-los-vikingos_978-84-1392-031-3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LFT 11: La aventura de los Balbuena con los vikingos</t>
+          <t>Los Forasteros del Tiempo 11: La aventura de los Balbuena con los vikingos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -805,37 +805,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/1794_978-84-18107-59-7</t>
+          <t>https://www.todostuslibros.com/libros/homo-deus-edicion-limitada-a-precio-especial_978-84-663-4224-7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>Homo Deus (edición limitada a precio especial)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Natt Och Dag, Niklas</t>
+          <t>Harari, Yuval Noah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ficción histórica</t>
+          <t>Didáctica: Ciencias sociales</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SALAMANDRA</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>DEBOLSILLO</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Joandomènec Ros i Aragonès;</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>NARRATIVA</t>
+          <t>CAMPAÑAS</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -855,83 +859,75 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Sueco</t>
+          <t>Hebreo</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-18107-59-7</t>
+          <t xml:space="preserve"> 978-84-663-4224-7</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9788418107597</t>
+          <t>9788466342247</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 155 mm.</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>750 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 195 x 134 mm.</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>496</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>04-03-2021</t>
+          <t>04-02-2021</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/homo-deus-edicion-limitada-a-precio-especial_978-84-663-4224-7</t>
+          <t>https://www.todostuslibros.com/libros/la-vuelta-del-comunismo_978-84-670-6031-7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Homo Deus (edición limitada a precio especial)</t>
+          <t>La vuelta del comunismo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Harari, Yuval Noah</t>
+          <t>Jiménez Losantos, Federico</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Didáctica: Ciencias sociales</t>
+          <t>Marxismo y comunismo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DEBOLSILLO</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Joandomènec Ros i Aragonès;</t>
-        </is>
-      </c>
+          <t>Espasa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CAMPAÑAS</t>
+          <t>F. COLECCION</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -946,70 +942,74 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Hebreo</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-663-4224-7</t>
+          <t xml:space="preserve"> 978-84-670-6031-7</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9788466342247</t>
+          <t>9788467060317</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 195 x 134 mm.</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+          <t xml:space="preserve"> 230 x 150 mm.</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>674 gramos</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>456</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>04-02-2021</t>
+          <t>24-11-2020</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-principito_978-84-9838-149-8</t>
+          <t>https://www.todostuslibros.com/libros/el-juego-del-alma_978-84-9129-354-5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>El Principito</t>
+          <t>El juego del alma</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Saint-Exupéry, Antoine de</t>
+          <t>Castillo, Javier</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cuestiones personales y sociales: autoconocimiento y autoestima (infantil/juvenil)</t>
+          <t>Género policíaco y misterio</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Salamandra Infantil y Juvenil</t>
+          <t>SUMA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Antoine de Saint-Exupéry</t>
+          <t>TINTA NEGRA</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1029,78 +1029,70 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Francés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-9838-149-8</t>
+          <t xml:space="preserve"> 978-84-9129-354-5</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>9788498381498</t>
+          <t>9788491293545</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 180 x 113 mm.</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>146 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 232 x 156 mm.</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>528</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>15-01-2008</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Saint-Exupéry, Antoine de</t>
-        </is>
-      </c>
+          <t>25-03-2021</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-juego-del-alma_978-84-9129-354-5</t>
+          <t>https://www.todostuslibros.com/libros/el-principito_978-84-9838-149-8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>El juego del alma</t>
+          <t>El Principito</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Castillo, Javier</t>
+          <t>Saint-Exupéry, Antoine de</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Género policíaco y misterio</t>
+          <t>Cuestiones personales y sociales: autoconocimiento y autoestima (infantil/juvenil)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SUMA</t>
+          <t>Salamandra Infantil y Juvenil</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TINTA NEGRA</t>
+          <t>Antoine de Saint-Exupéry</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1120,70 +1112,78 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Francés</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-9129-354-5</t>
+          <t xml:space="preserve"> 978-84-9838-149-8</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>9788491293545</t>
+          <t>9788498381498</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 232 x 156 mm.</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
+          <t xml:space="preserve"> 180 x 113 mm.</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>146 gramos</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>25-03-2021</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>15-01-2008</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Saint-Exupéry, Antoine de</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/un-amor_978-84-339-9903-0</t>
+          <t>https://www.todostuslibros.com/libros/1794_978-84-18107-59-7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Un amor</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mesa, Sara</t>
+          <t>Natt Och Dag, Niklas</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Obra de misterio y suspense</t>
+          <t>Ficción histórica</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Editorial Anagrama</t>
+          <t>SALAMANDRA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Narrativas hispánicas</t>
+          <t>NARRATIVA</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1203,79 +1203,79 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Sueco</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-339-9903-0</t>
+          <t xml:space="preserve"> 978-84-18107-59-7</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>9788433999030</t>
+          <t>9788418107597</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 x 14 mm.</t>
+          <t xml:space="preserve"> 230 x 155 mm.</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>268 gramos</t>
+          <t>750 gramos</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>512</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>02-09-2020</t>
+          <t>04-03-2021</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-chisme_978-84-670-6107-9</t>
+          <t>https://www.todostuslibros.com/libros/un-amor_978-84-339-9903-0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>El chisme</t>
+          <t>Un amor</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mejide, Risto</t>
+          <t>Mesa, Sara</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Obra de misterio y suspense</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Espasa</t>
+          <t>Editorial Anagrama</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ESPASA NARRATIVA</t>
+          <t>Narrativas hispánicas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1295,73 +1295,69 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-670-6107-9</t>
+          <t xml:space="preserve"> 978-84-339-9903-0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>9788467061079</t>
+          <t>9788433999030</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 190 x 125 mm.</t>
+          <t xml:space="preserve"> 22 x 14 mm.</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>378 gramos</t>
+          <t>268 gramos</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>192</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>10-03-2021</t>
+          <t>02-09-2020</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/espiritus-y-criaturas-de-japon_978-84-140-3180-3</t>
+          <t>https://www.todostuslibros.com/libros/linea-de-fuego_978-84-204-5466-5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Espíritus y criaturas de Japón</t>
+          <t>Línea de fuego</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hearn, Lafcadio</t>
+          <t>Pérez-Reverte, Arturo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Misterios, lo sobrenatural, monstruos y seres mitológicos (infantil/juvenil)</t>
+          <t>Ficción histórica</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Editorial Luis Vives (Edelvives)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Tobar, Alejandro</t>
-        </is>
-      </c>
+          <t>ALFAGUARA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Álbumes ilustrados</t>
+          <t>Hispánica</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1381,74 +1377,78 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Francés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-140-3180-3</t>
+          <t xml:space="preserve"> 978-84-204-5466-5</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>9788414031803</t>
+          <t>9788420454665</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 275 x 200 mm.</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
+          <t xml:space="preserve"> 248 x 162 mm.</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1127 gramos</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>688</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>22-03-2021</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Lacombe, Benjamin</t>
-        </is>
-      </c>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/linea-de-fuego_978-84-204-5466-5</t>
+          <t>https://www.todostuslibros.com/libros/espiritus-y-criaturas-de-japon_978-84-140-3180-3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Línea de fuego</t>
+          <t>Espíritus y criaturas de Japón</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Pérez-Reverte, Arturo</t>
+          <t>Hearn, Lafcadio</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ficción histórica</t>
+          <t>Misterios, lo sobrenatural, monstruos y seres mitológicos (infantil/juvenil)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ALFAGUARA</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>Editorial Luis Vives (Edelvives)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tobar, Alejandro</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hispánica</t>
+          <t>Álbumes ilustrados</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1468,79 +1468,83 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Francés</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-204-5466-5</t>
+          <t xml:space="preserve"> 978-84-140-3180-3</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>9788420454665</t>
+          <t>9788414031803</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 248 x 162 mm.</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1127 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 275 x 200 mm.</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>162</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>06-10-2020</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>22-03-2021</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Lacombe, Benjamin</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/la-vuelta-del-comunismo_978-84-670-6031-7</t>
+          <t>https://www.todostuslibros.com/libros/my-hero-academia-no-02_978-84-16693-51-1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>La vuelta del comunismo</t>
+          <t>My Hero Academia nº 02</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jiménez Losantos, Federico</t>
+          <t>Horikoshi, Kohei</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Marxismo y comunismo</t>
+          <t>Novelas gráficas: manga</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Espasa</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>Planeta Cómic</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Koike, Ayako</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>F. COLECCION</t>
+          <t>MY HERO ACADEMIA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1555,58 +1559,58 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Japonés</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-670-6031-7</t>
+          <t xml:space="preserve"> 978-84-16693-51-1</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>9788467060317</t>
+          <t>9788416693511</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 150 mm.</t>
+          <t xml:space="preserve"> 177 x 111 mm.</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>674 gramos</t>
+          <t>222 gramos</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>208</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>24-11-2020</t>
+          <t>29-11-2016</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/otra-realidad_978-84-234-3227-1</t>
+          <t>https://www.todostuslibros.com/libros/el-chisme_978-84-670-6107-9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Otra realidad</t>
+          <t>El chisme</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Varoufakis, Yanis</t>
+          <t>Mejide, Risto</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1616,22 +1620,18 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Deusto</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Casanovas López, Alexandre</t>
-        </is>
-      </c>
+          <t>Espasa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin colección</t>
+          <t>ESPASA NARRATIVA</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1646,78 +1646,78 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Inglés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-234-3227-1</t>
+          <t xml:space="preserve"> 978-84-670-6107-9</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>9788423432271</t>
+          <t>9788467061079</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 150 mm.</t>
+          <t xml:space="preserve"> 190 x 125 mm.</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>282 gramos</t>
+          <t>378 gramos</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>224</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>17-03-2021</t>
+          <t>10-03-2021</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/my-hero-academia-no-02_978-84-16693-51-1</t>
+          <t>https://www.todostuslibros.com/libros/el-club-del-crimen-de-los-jueves_978-84-670-6022-5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>My Hero Academia nº 02</t>
+          <t>El Club del Crimen de los Jueves</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Horikoshi, Kohei</t>
+          <t>Osman, Richard</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Novelas gráficas: manga</t>
+          <t>Género policíaco y misterio</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Planeta Cómic</t>
+          <t>Espasa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Koike, Ayako</t>
+          <t>Conde Fisas, Claudia</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>MY HERO ACADEMIA</t>
+          <t>Espasa Narrativa</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1737,78 +1737,78 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Japonés</t>
+          <t>Inglés</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-16693-51-1</t>
+          <t xml:space="preserve"> 978-84-670-6022-5</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>9788416693511</t>
+          <t>9788467060225</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 177 x 111 mm.</t>
+          <t xml:space="preserve"> 230 x 150 mm.</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>222 gramos</t>
+          <t>518 gramos</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>464</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>29-11-2016</t>
+          <t>08-09-2020</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-club-del-crimen-de-los-jueves_978-84-670-6022-5</t>
+          <t>https://www.todostuslibros.com/libros/ready-player-two_978-84-18037-08-5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>El Club del Crimen de los Jueves</t>
+          <t>Ready Player Two</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Osman, Richard</t>
+          <t>Cline, Ernest</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Género policíaco y misterio</t>
+          <t>Juegos de PC/ordenador/en línea: guías de estrategia</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Espasa</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Conde Fisas, Claudia</t>
+          <t>David Tejera Expósito;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Espasa Narrativa</t>
+          <t>Nova</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1833,24 +1833,20 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-670-6022-5</t>
+          <t xml:space="preserve"> 978-84-18037-08-5</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>9788467060225</t>
+          <t>9788418037085</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 150 mm.</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>518 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 231 x 152 mm.</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>464</t>
@@ -1858,44 +1854,48 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>08-09-2020</t>
+          <t>25-03-2021</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/la-vida-contada-por-un-sapiens-a-un-neandertal_978-84-204-3965-5</t>
+          <t>https://www.todostuslibros.com/libros/otra-realidad_978-84-234-3227-1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>La vida contada por un sapiens a un neandertal</t>
+          <t>Otra realidad</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Millás, Juan José / Arsuaga, Juan Luis</t>
+          <t>Varoufakis, Yanis</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Antropología</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ALFAGUARA</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Deusto</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Casanovas López, Alexandre</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>HISPANICA</t>
+          <t>Sin colección</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1915,78 +1915,74 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Inglés</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-204-3965-5</t>
+          <t xml:space="preserve"> 978-84-234-3227-1</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>9788420439655</t>
+          <t>9788423432271</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 240 x 154 mm.</t>
+          <t xml:space="preserve"> 230 x 150 mm.</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>120 gramos</t>
+          <t>282 gramos</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>240</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>23-09-2020</t>
+          <t>17-03-2021</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/ready-player-two_978-84-18037-08-5</t>
+          <t>https://www.todostuslibros.com/libros/independencia_978-84-9066-929-7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ready Player Two</t>
+          <t>Independencia</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cline, Ernest</t>
+          <t>Cercas, Javier</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Juegos de PC/ordenador/en línea: guías de estrategia</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nova</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>David Tejera Expósito;</t>
-        </is>
-      </c>
+          <t>Tusquets Editores S.A.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Andanzas</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2006,74 +2002,74 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Inglés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-18037-08-5</t>
+          <t xml:space="preserve"> 978-84-9066-929-7</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>9788418037085</t>
+          <t>9788490669297</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 231 x 152 mm.</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
+          <t xml:space="preserve"> 225 x 148 mm.</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>559 gramos</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>400</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>25-03-2021</t>
+          <t>03-03-2021</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/isadora-moon-y-el-hada-de-los-dientes-isadora-moon-10_978-84-204-5371-2</t>
+          <t>https://www.todostuslibros.com/libros/feria_978-84-122267-2-0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Isadora Moon y el hada de los dientes (Isadora Moon 10)</t>
+          <t>Feria</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Muncaster, Harriet</t>
+          <t>Simón, Ana Iris</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Relatos sobre la familia y el hogar (infantil/juvenil)</t>
+          <t>EUROPA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ALFAGUARA</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Vanesa Pérez-Sauquillo Muñoz;</t>
-        </is>
-      </c>
+          <t>Círculo de Tiza</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Isadora Moon</t>
+          <t>CIRCULO DE TIZA</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2093,70 +2089,78 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Inglés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-204-5371-2</t>
+          <t xml:space="preserve"> 978-84-122267-2-0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>9788420453712</t>
+          <t>9788412226720</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201 x 140 mm.</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
+          <t xml:space="preserve"> 215 x 135 mm.</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>150 gramos</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>240</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>04-02-2021</t>
+          <t>29-09-2020</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/independencia_978-84-9066-929-7</t>
+          <t>https://www.todostuslibros.com/libros/isadora-moon-y-el-hada-de-los-dientes-isadora-moon-10_978-84-204-5371-2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Independencia</t>
+          <t>Isadora Moon y el hada de los dientes (Isadora Moon 10)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cercas, Javier</t>
+          <t>Muncaster, Harriet</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Relatos sobre la familia y el hogar (infantil/juvenil)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tusquets Editores</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>ALFAGUARA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Vanesa Pérez-Sauquillo Muñoz;</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Andanzas</t>
+          <t>Isadora Moon</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2176,74 +2180,74 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Inglés</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-9066-929-7</t>
+          <t xml:space="preserve"> 978-84-204-5371-2</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>9788490669297</t>
+          <t>9788420453712</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 225 x 148 mm.</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>559 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 201 x 140 mm.</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>128</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>03-03-2021</t>
+          <t>04-02-2021</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-hijo-del-padre_978-84-233-5916-5</t>
+          <t>https://www.todostuslibros.com/libros/la-mansion-tiempo-de-resurgir_978-84-01-02483-2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>El hijo del padre</t>
+          <t>La mansión. Tiempo de resurgir</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>del Árbol, Víctor</t>
+          <t>Jacobs, Anne</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Obra de misterio y suspense</t>
+          <t>Narrativa romántica histórica</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ediciones Destino</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>PLAZA &amp; JANES</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Ana Guelbenzu de San Eustaquio;Mateo Pierre Avit Ferrero;</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Áncora &amp; Delfín</t>
+          <t>EXITOS</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2263,74 +2267,70 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Alemán</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-233-5916-5</t>
+          <t xml:space="preserve"> 978-84-01-02483-2</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>9788423359165</t>
+          <t>9788401024832</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 133 mm.</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>538 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 231 x 152 mm.</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>512</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>10-03-2021</t>
+          <t>04-03-2021</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/emocionarte-la-doble-vida-de-los-cuadros_978-84-670-6029-4</t>
+          <t>https://www.todostuslibros.com/libros/llevame-a-casa_978-84-322-3773-7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Emocionarte. La doble vida de los cuadros</t>
+          <t>Llévame a casa</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Amor, Carlos del</t>
+          <t>Carrasco, Jesús</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Artes</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Espasa</t>
+          <t>Seix Barral</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>F. COLECCION</t>
+          <t>Biblioteca Breve</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2355,69 +2355,69 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-670-6029-4</t>
+          <t xml:space="preserve"> 978-84-322-3773-7</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>9788467060294</t>
+          <t>9788432237737</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 150 mm.</t>
+          <t xml:space="preserve"> 230 x 133 mm.</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>428 gramos</t>
+          <t>426 gramos</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>320</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>20-10-2020</t>
+          <t>03-02-2021</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/feria_978-84-122267-2-0</t>
+          <t>https://www.todostuslibros.com/libros/la-vida-contada-por-un-sapiens-a-un-neandertal_978-84-204-3965-5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Feria</t>
+          <t>La vida contada por un sapiens a un neandertal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Simón, Ana Iris</t>
+          <t>Millás, Juan José / Arsuaga, Juan Luis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EUROPA</t>
+          <t>Antropología</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Círculo de Tiza</t>
+          <t>ALFAGUARA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>CIRCULO DE TIZA</t>
+          <t>HISPANICA</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2442,69 +2442,69 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-122267-2-0</t>
+          <t xml:space="preserve"> 978-84-204-3965-5</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>9788412226720</t>
+          <t>9788420439655</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 215 x 135 mm.</t>
+          <t xml:space="preserve"> 240 x 154 mm.</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>150 gramos</t>
+          <t>120 gramos</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>224</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>29-09-2020</t>
+          <t>23-09-2020</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/llevame-a-casa_978-84-322-3773-7</t>
+          <t>https://www.todostuslibros.com/libros/emocionarte-la-doble-vida-de-los-cuadros_978-84-670-6029-4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Llévame a casa</t>
+          <t>Emocionarte. La doble vida de los cuadros</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Carrasco, Jesús</t>
+          <t>Amor, Carlos del</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Artes</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Seix Barral</t>
+          <t>Espasa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Biblioteca Breve</t>
+          <t>F. COLECCION</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2529,73 +2529,69 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-322-3773-7</t>
+          <t xml:space="preserve"> 978-84-670-6029-4</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>9788432237737</t>
+          <t>9788467060294</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 133 mm.</t>
+          <t xml:space="preserve"> 230 x 150 mm.</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>426 gramos</t>
+          <t>428 gramos</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>232</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>03-02-2021</t>
+          <t>20-10-2020</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/la-mansion-tiempo-de-resurgir_978-84-01-02483-2</t>
+          <t>https://www.todostuslibros.com/libros/un-cuento-perfecto_978-84-663-5481-3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La mansión. Tiempo de resurgir</t>
+          <t>Un cuento perfecto</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jacobs, Anne</t>
+          <t>Benavent, Elísabet</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Narrativa romántica histórica</t>
+          <t>Narrativa romántica adulta y contemporánea</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PLAZA &amp; JANES</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Ana Guelbenzu de San Eustaquio;Mateo Pierre Avit Ferrero;</t>
-        </is>
-      </c>
+          <t>DEBOLSILLO</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>EXITOS</t>
+          <t>DEBOLSILLO</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2615,70 +2611,70 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Alemán</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-01-02483-2</t>
+          <t xml:space="preserve"> 978-84-663-5481-3</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>9788401024832</t>
+          <t>9788466354813</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 231 x 152 mm.</t>
+          <t xml:space="preserve"> 190 x 128 mm.</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>640</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>04-03-2021</t>
+          <t>18-02-2021</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/un-cuento-perfecto_978-84-663-5481-3</t>
+          <t>https://www.todostuslibros.com/libros/el-hijo-del-padre_978-84-233-5916-5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Un cuento perfecto</t>
+          <t>El hijo del padre</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Benavent, Elísabet</t>
+          <t>del Árbol, Víctor</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Narrativa romántica adulta y contemporánea</t>
+          <t>Obra de misterio y suspense</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DEBOLSILLO</t>
+          <t>Ediciones Destino</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>DEBOLSILLO</t>
+          <t>Áncora &amp; Delfín</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2703,49 +2699,53 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-663-5481-3</t>
+          <t xml:space="preserve"> 978-84-233-5916-5</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>9788466354813</t>
+          <t>9788423359165</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 190 x 128 mm.</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr"/>
+          <t xml:space="preserve"> 230 x 133 mm.</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>538 gramos</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>416</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>18-02-2021</t>
+          <t>10-03-2021</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/tomas-nevinson_978-84-204-5459-7</t>
+          <t>https://www.todostuslibros.com/libros/el-tejido-de-los-dias_978-84-666-6895-8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tomás Nevinson</t>
+          <t>El tejido de los días</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Marías, Javier</t>
+          <t>Aurensanz, Carlos</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2755,18 +2755,18 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ALFAGUARA</t>
+          <t>B (Ediciones B)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Hispánicas</t>
+          <t>GRANDES NOVELAS</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2786,27 +2786,23 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-204-5459-7</t>
+          <t xml:space="preserve"> 978-84-666-6895-8</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>9788420454597</t>
+          <t>9788466668958</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 240 x 158 mm.</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>100 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 238 x 165 mm.</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>656</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2818,42 +2814,42 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/loba-negra_978-84-666-6649-7</t>
+          <t>https://www.todostuslibros.com/libros/tomas-nevinson_978-84-204-5459-7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Loba negra</t>
+          <t>Tomás Nevinson</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Gómez-Jurado, Juan</t>
+          <t>Marías, Javier</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Obra de misterio y suspense</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>B (Ediciones B)</t>
+          <t>ALFAGUARA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>LA TRAMA</t>
+          <t>Hispánicas</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2873,74 +2869,78 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-666-6649-7</t>
+          <t xml:space="preserve"> 978-84-204-5459-7</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>9788466666497</t>
+          <t>9788420454597</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 239 x 163 mm.</t>
+          <t xml:space="preserve"> 240 x 158 mm.</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>800 gramos</t>
+          <t>100 gramos</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>688</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>24-10-2019</t>
+          <t>11-03-2021</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-lunes-nos-querran_978-84-233-5877-9</t>
+          <t>https://www.todostuslibros.com/libros/el-poder-del-ahora_978-84-8445-206-5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>El lunes nos querrán</t>
+          <t>El poder del ahora</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>El Hachmi, Najat</t>
+          <t>Tolle, Eckhart</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Mente, cuerpo y espíritu: pensamiento y práctica</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ediciones Destino</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>Gaia Ediciones</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Iribarren Berrade, Miguel</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Áncora &amp; Delfín</t>
+          <t>Perenne</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2955,37 +2955,37 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Inglés</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-233-5877-9</t>
+          <t xml:space="preserve"> 978-84-8445-206-5</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>9788423358779</t>
+          <t>9788484452065</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 133 mm.</t>
+          <t xml:space="preserve"> 210 x 145 mm.</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>536 gramos</t>
+          <t>450 gramos</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>220</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>10-02-2021</t>
+          <t>01-09-2007</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -3020,11 +3020,7 @@
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Alimentación saludable</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
@@ -3075,41 +3071,37 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/dragon-ball-super-no-09_978-84-1341-580-2</t>
+          <t>https://www.todostuslibros.com/libros/trigo-limpio_978-84-322-3791-1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Dragon Ball Super nº 09</t>
+          <t>Trigo limpio</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Toriyama, Akira / Takahashi, Yoichi</t>
+          <t>Gil, Juan Manuel</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cómics y novelas gráficas</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Planeta Cómic</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Daruma</t>
-        </is>
-      </c>
+          <t>Seix Barral</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SERIE SUPER DRAGON BALL</t>
+          <t>Biblioteca Breve</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3129,58 +3121,58 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Japonés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-1341-580-2</t>
+          <t xml:space="preserve"> 978-84-322-3791-1</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>9788413415802</t>
+          <t>9788432237911</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 177 x 111 mm.</t>
+          <t xml:space="preserve"> 230 x 133 mm.</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>206 gramos</t>
+          <t>506 gramos</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>392</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>24-03-2021</t>
+          <t>10-03-2021</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-tejido-de-los-dias_978-84-666-6895-8</t>
+          <t>https://www.todostuslibros.com/libros/el-lunes-nos-querran_978-84-233-5877-9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>El tejido de los días</t>
+          <t>El lunes nos querrán</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Aurensanz, Carlos</t>
+          <t>El Hachmi, Najat</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3190,13 +3182,13 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>B (Ediciones B)</t>
+          <t>Ediciones Destino</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>GRANDES NOVELAS</t>
+          <t>Áncora &amp; Delfín</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3221,70 +3213,74 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-666-6895-8</t>
+          <t xml:space="preserve"> 978-84-233-5877-9</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>9788466668958</t>
+          <t>9788423358779</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 238 x 165 mm.</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr"/>
+          <t xml:space="preserve"> 230 x 133 mm.</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>536 gramos</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>304</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>11-03-2021</t>
+          <t>10-02-2021</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/trigo-limpio_978-84-322-3791-1</t>
+          <t>https://www.todostuslibros.com/libros/loba-negra_978-84-666-6649-7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Trigo limpio</t>
+          <t>Loba negra</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Gil, Juan Manuel</t>
+          <t>Gómez-Jurado, Juan</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Obra de misterio y suspense</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Seix Barral</t>
+          <t>B (Ediciones B)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Biblioteca Breve</t>
+          <t>LA TRAMA</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3304,73 +3300,73 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-322-3791-1</t>
+          <t xml:space="preserve"> 978-84-666-6649-7</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>9788432237911</t>
+          <t>9788466666497</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 133 mm.</t>
+          <t xml:space="preserve"> 239 x 163 mm.</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>506 gramos</t>
+          <t>800 gramos</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>552</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>10-03-2021</t>
+          <t>24-10-2019</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-poder-del-ahora_978-84-8445-206-5</t>
+          <t>https://www.todostuslibros.com/libros/hamnet_978-84-17977-58-0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>El poder del ahora</t>
+          <t>Hamnet</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tolle, Eckhart</t>
+          <t>O'Farrell, Maggie</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mente, cuerpo y espíritu: pensamiento y práctica</t>
+          <t>Ficción histórica</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gaia Ediciones</t>
+          <t>Libros del Asteroide</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Iribarren Berrade, Miguel</t>
+          <t>Cardeñoso, Concha</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Perenne</t>
+          <t>Libros del Asteroide</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3395,32 +3391,32 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-8445-206-5</t>
+          <t xml:space="preserve"> 978-84-17977-58-0</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>9788484452065</t>
+          <t>9788417977580</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 210 x 145 mm.</t>
+          <t xml:space="preserve"> 215 x 140 mm.</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>450 gramos</t>
+          <t>460 gramos</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>352</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>01-09-2007</t>
+          <t>22-02-2021</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -3514,41 +3510,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/hamnet_978-84-17977-58-0</t>
+          <t>https://www.todostuslibros.com/libros/dragon-ball-super-no-09_978-84-1341-580-2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hamnet</t>
+          <t>Dragon Ball Super nº 09</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O'Farrell, Maggie</t>
+          <t>Toriyama, Akira / Takahashi, Yoichi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ficción histórica</t>
+          <t>Cómics y novelas gráficas</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Libros del Asteroide</t>
+          <t>Planeta Cómic</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cardeñoso, Concha</t>
+          <t>Daruma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Libros del Asteroide</t>
+          <t>SERIE SUPER DRAGON BALL</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3568,79 +3564,79 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Inglés</t>
+          <t>Japonés</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-17977-58-0</t>
+          <t xml:space="preserve"> 978-84-1341-580-2</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>9788417977580</t>
+          <t>9788413415802</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 215 x 140 mm.</t>
+          <t xml:space="preserve"> 177 x 111 mm.</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>460 gramos</t>
+          <t>206 gramos</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>192</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>22-02-2021</t>
+          <t>24-03-2021</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/las-armas-de-la-luz_978-84-9139-466-2</t>
+          <t>https://www.todostuslibros.com/libros/todo-lo-que-nunca-fuimos_978-84-08-23811-9</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Las armas de la luz</t>
+          <t>Todo lo que nunca fuimos</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sánchez Adalid, Jesús</t>
+          <t>Kellen, Alice</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Aventura histórica</t>
+          <t>Narrativa romántica adulta y contemporánea</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>HarperCollins</t>
+          <t>Booket</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>NARRATIVA HISTÓRICA</t>
+          <t>Especial Enero Febrero 2021</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3660,70 +3656,74 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-9139-466-2</t>
+          <t xml:space="preserve"> 978-84-08-23811-9</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>9788491394662</t>
+          <t>9788408238119</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 155 mm.</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr"/>
+          <t xml:space="preserve"> 190 x 125 mm.</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>256 gramos</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>352</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>10-03-2021</t>
+          <t>03-02-2021</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/terra-alta_978-84-08-23796-9</t>
+          <t>https://www.todostuslibros.com/libros/las-armas-de-la-luz_978-84-9139-466-2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Terra Alta</t>
+          <t>Las armas de la luz</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cercas, Javier</t>
+          <t>Sánchez Adalid, Jesús</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Aventura histórica</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Booket</t>
+          <t>HarperCollins</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>NF Novela</t>
+          <t>NARRATIVA HISTÓRICA</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3743,73 +3743,65 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-08-23796-9</t>
+          <t xml:space="preserve"> 978-84-9139-466-2</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>9788408237969</t>
+          <t>9788491394662</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 200 x 130 mm.</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>276 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 230 x 155 mm.</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>816</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>17-02-2021</t>
+          <t>10-03-2021</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/klara-y-el-sol_978-84-339-8087-8</t>
+          <t>https://www.todostuslibros.com/libros/asombro-y-desencanto_978-84-17977-57-3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Klara y el Sol</t>
+          <t>Asombro y desencanto</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ishiguro, Kazuo</t>
+          <t>Bustos, Jorge</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Editorial Anagrama S.A.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Bach, Mauricio</t>
-        </is>
-      </c>
+          <t>Libros del Asteroide</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Panorama de narrativas</t>
+          <t>Libros del Asteroide</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3829,74 +3821,74 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Inglés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-339-8087-8</t>
+          <t xml:space="preserve"> 978-84-17977-57-3</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>9788433980878</t>
+          <t>9788417977573</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 x 14 mm.</t>
+          <t xml:space="preserve"> 200 x 125 mm.</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>445 gramos</t>
+          <t>500 gramos</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>224</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>03-03-2021</t>
+          <t>22-03-2021</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/asombro-y-desencanto_978-84-17977-57-3</t>
+          <t>https://www.todostuslibros.com/libros/no-te-arrepientas_978-84-1384-014-7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Asombro y desencanto</t>
+          <t>No te arrepientas</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bustos, Jorge</t>
+          <t>Esparza, José Javier</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>España</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Libros del Asteroide</t>
+          <t>LA ESFERA DE LOS LIBROS</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Libros del Asteroide</t>
+          <t>ESFERA</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3921,69 +3913,69 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-17977-57-3</t>
+          <t xml:space="preserve"> 978-84-1384-014-7</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>9788417977573</t>
+          <t>9788413840147</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 200 x 125 mm.</t>
+          <t xml:space="preserve"> 240 x 160 mm.</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>500 gramos</t>
+          <t>400 gramos</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>336</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>22-03-2021</t>
+          <t>17-02-2021</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/conodramas_978-84-08-23345-9</t>
+          <t>https://www.todostuslibros.com/libros/terra-alta_978-84-08-23796-9</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Coñodramas</t>
+          <t>Terra Alta</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Moderna de Pueblo</t>
+          <t>Cercas, Javier</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Feminismo y teoría feminista</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Zenith</t>
+          <t>Booket</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Moderna de pueblo</t>
+          <t>NF Novela</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4008,32 +4000,32 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-08-23345-9</t>
+          <t xml:space="preserve"> 978-84-08-23796-9</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>9788408233459</t>
+          <t>9788408237969</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 170 mm.</t>
+          <t xml:space="preserve"> 200 x 130 mm.</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>978 gramos</t>
+          <t>276 gramos</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>384</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>24-11-2020</t>
+          <t>17-02-2021</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -4127,42 +4119,42 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/no-te-arrepientas_978-84-1384-014-7</t>
+          <t>https://www.todostuslibros.com/libros/una-herencia-peligrosa-amanda-black-1_978-84-17921-37-8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>No te arrepientas</t>
+          <t>Una herencia peligrosa (Amanda Black 1)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Esparza, José Javier</t>
+          <t>Gómez-Jurado, Juan / Montes, Bárbara</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Thriller (infantil/juvenil)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>LA ESFERA DE LOS LIBROS</t>
+          <t>B de Blok (Ediciones B)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ESFERA</t>
+          <t>Amanda Black</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4182,69 +4174,69 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-1384-014-7</t>
+          <t xml:space="preserve"> 978-84-17921-37-8</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>9788413840147</t>
+          <t>9788417921378</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 240 x 160 mm.</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>400 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 211 x 147 mm.</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>192</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>17-02-2021</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>11-02-2021</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>FORÉS, David G.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/todo-lo-que-nunca-fuimos_978-84-08-23811-9</t>
+          <t>https://www.todostuslibros.com/libros/la-anguila_978-84-339-9921-4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Todo lo que nunca fuimos</t>
+          <t>La anguila</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kellen, Alice</t>
+          <t>Bonet, Paula</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Narrativa romántica adulta y contemporánea</t>
+          <t>TRATAMIENTOS Y MATERIAS ARTÍSTICAS</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Booket</t>
+          <t>Editorial Anagrama</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Especial Enero Febrero 2021</t>
+          <t>Narrativas hispánicas</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4269,74 +4261,74 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-08-23811-9</t>
+          <t xml:space="preserve"> 978-84-339-9921-4</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>9788408238119</t>
+          <t>9788433999214</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 190 x 125 mm.</t>
+          <t xml:space="preserve"> 22 x 14 mm.</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>256 gramos</t>
+          <t>326 gramos</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>200</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>03-02-2021</t>
+          <t>24-03-2021</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/una-herencia-peligrosa-amanda-black-1_978-84-17921-37-8</t>
+          <t>https://www.todostuslibros.com/libros/conodramas_978-84-08-23345-9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Una herencia peligrosa (Amanda Black 1)</t>
+          <t>Coñodramas</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Gómez-Jurado, Juan / Montes, Bárbara</t>
+          <t>Moderna de Pueblo</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Thriller (infantil/juvenil)</t>
+          <t>Feminismo y teoría feminista</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>B de Blok (Ediciones B)</t>
+          <t>Zenith</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Amanda Black</t>
+          <t>Moderna de pueblo</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4356,74 +4348,74 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-17921-37-8</t>
+          <t xml:space="preserve"> 978-84-08-23345-9</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>9788417921378</t>
+          <t>9788408233459</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211 x 147 mm.</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr"/>
+          <t xml:space="preserve"> 230 x 170 mm.</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>978 gramos</t>
+        </is>
+      </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>312</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>11-02-2021</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>FORÉS, David G.</t>
-        </is>
-      </c>
+          <t>24-11-2020</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/seis-cuatro_978-84-18107-25-2</t>
+          <t>https://www.todostuslibros.com/libros/boulevard_978-980-7909-06-8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Seis Cuatro</t>
+          <t>Boulevard</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Yokoyama, Hideo</t>
+          <t>Mojarraz Salvador, Flor Guadal</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Género policíaco y misterio</t>
+          <t>Ficción de crimen y misterio (infantil/juvenil)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SALAMANDRA</t>
+          <t>Editorial Naranja</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Narrativa</t>
+          <t>AUTOR</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> No definida.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4438,70 +4430,66 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Inglés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-18107-25-2</t>
+          <t xml:space="preserve"> 978-980-7909-06-8</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>9788418107252</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 230 x 155 mm.</t>
-        </is>
-      </c>
+          <t>9789807909068</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>316</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>14-01-2021</t>
+          <t>01-05-2020</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-infinito-en-un-junco_978-84-17860-79-0</t>
+          <t>https://www.todostuslibros.com/libros/hazlo-tu-mismo-con-maestros-de-la-costura_978-84-670-6090-4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>El infinito en un junco</t>
+          <t>Hazlo tú mismo con Maestros de la costura</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Vallejo, Irene</t>
+          <t>Shine / RTVE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ensayos literarios</t>
+          <t>ESTILO DE VIDA, DEPORTE Y OCIO</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Siruela</t>
+          <t>Espasa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Biblioteca de Ensayo / Serie mayor</t>
+          <t>F. COLECCION</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4526,74 +4514,74 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-17860-79-0</t>
+          <t xml:space="preserve"> 978-84-670-6090-4</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>9788417860790</t>
+          <t>9788467060904</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 150 mm.</t>
+          <t xml:space="preserve"> 235 x 225 mm.</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>744 gramos</t>
+          <t>646 gramos</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>176</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>22-02-2021</t>
+          <t>20-01-2021</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/hazlo-tu-mismo-con-maestros-de-la-costura_978-84-670-6090-4</t>
+          <t>https://www.todostuslibros.com/libros/los-compas-escapan-de-la-prision-nueva-presentacion_978-84-270-4795-2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hazlo tú mismo con Maestros de la costura</t>
+          <t>Los Compas escapan de la prisión (nueva presentación)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Shine / RTVE</t>
+          <t>Mikecrack, El Trollino y Timba Vk</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ESTILO DE VIDA, DEPORTE Y OCIO</t>
+          <t>Edad de interés: a partir de 10 años</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Espasa</t>
+          <t>Ediciones Martínez Roca</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>F. COLECCION</t>
+          <t>4You2</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4613,74 +4601,78 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-670-6090-4</t>
+          <t xml:space="preserve"> 978-84-270-4795-2</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>9788467060904</t>
+          <t>9788427047952</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 235 x 225 mm.</t>
+          <t xml:space="preserve"> 230 x 150 mm.</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>646 gramos</t>
+          <t>400 gramos</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>224</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>20-01-2021</t>
+          <t>29-10-2020</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/boulevard_978-980-7909-06-8</t>
+          <t>https://www.todostuslibros.com/libros/klara-y-el-sol_978-84-339-8087-8</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Boulevard</t>
+          <t>Klara y el Sol</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mojarraz Salvador, Flor Guadal</t>
+          <t>Ishiguro, Kazuo</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ficción de crimen y misterio (infantil/juvenil)</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Editorial Naranja</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Editorial Anagrama</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Bach, Mauricio</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>AUTOR</t>
+          <t>Panorama de narrativas</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No definida.</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4695,71 +4687,79 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Inglés</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-980-7909-06-8</t>
+          <t xml:space="preserve"> 978-84-339-8087-8</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>9789807909068</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+          <t>9788433980878</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 22 x 14 mm.</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>445 gramos</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>384</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>01-05-2020</t>
+          <t>03-03-2021</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/los-compas-escapan-de-la-prision-nueva-presentacion_978-84-270-4795-2</t>
+          <t>https://www.todostuslibros.com/libros/el-infinito-en-un-junco_978-84-17860-79-0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Los Compas escapan de la prisión (nueva presentación)</t>
+          <t>El infinito en un junco</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mikecrack, El Trollino y Timba Vk</t>
+          <t>Vallejo, Irene</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Edad de interés: a partir de 10 años</t>
+          <t>Ensayos literarios</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ediciones Martínez Roca</t>
+          <t>Siruela</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>4You2</t>
+          <t>Biblioteca de Ensayo / Serie mayor</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4779,12 +4779,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-270-4795-2</t>
+          <t xml:space="preserve"> 978-84-17860-79-0</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>9788427047952</t>
+          <t>9788417860790</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4794,63 +4794,59 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>400 gramos</t>
+          <t>744 gramos</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>452</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>29-10-2020</t>
+          <t>15-03-2021</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/la-cancion-de-aquiles-adn_978-84-1362-213-2</t>
+          <t>https://www.todostuslibros.com/libros/la-armadura-del-rey_978-84-18557-33-0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>La canción de Aquiles (AdN)</t>
+          <t>La armadura del rey</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Miller, Madeline</t>
+          <t>Pardo de Vera, Ana / Calatrava, Albert / Hurtado, Eider</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MITOS Y LEYENDAS NARRADOS COMO FICCIÓN</t>
+          <t>Política y Gobierno</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Alianza Editorial</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Pallarés Sanmiguel, José Miguel</t>
-        </is>
-      </c>
+          <t>Roca Editorial</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>ALIANZA DE NOVELAS</t>
+          <t>No Ficción</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4865,74 +4861,70 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Inglés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-1362-213-2</t>
+          <t xml:space="preserve"> 978-84-18557-33-0</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>9788413622132</t>
+          <t>9788418557330</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 235 x 165 mm.</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>672 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 235 x 150 mm.</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>240</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>04-03-2021</t>
+          <t>18-03-2021</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/biografia-de-la-luz_978-84-18526-13-8</t>
+          <t>https://www.todostuslibros.com/libros/harry-potter-y-la-piedra-filosofal-ed-minalima-harry-potter-1_978-84-18174-07-0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Biografía de la luz</t>
+          <t>Harry Potter y la piedra filosofal (Ed. Minalima) (Harry Potter 1)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>d'Ors, Pablo</t>
+          <t>Rowling, J.K.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Ficción clásica (infantil/juvenil)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Galaxia Gutenberg</t>
+          <t>Salamandra Infantil y Juvenil</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Narrativa</t>
+          <t>Harry Potter</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4952,79 +4944,75 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Inglés</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-18526-13-8</t>
+          <t xml:space="preserve"> 978-84-18174-07-0</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>9788418526138</t>
+          <t>9788418174070</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 220 x 145 mm.</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>590 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 235 x 159 mm.</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>368</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>10-02-2021</t>
+          <t>12-11-2020</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/harry-potter-y-la-piedra-filosofal-ed-minalima-harry-potter-1_978-84-18174-07-0</t>
+          <t>https://www.todostuslibros.com/libros/seis-cuatro_978-84-18107-25-2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Harry Potter y la piedra filosofal (Ed. Minalima) (Harry Potter 1)</t>
+          <t>Seis Cuatro</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rowling, J.K.</t>
+          <t>Yokoyama, Hideo</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ficción clásica (infantil/juvenil)</t>
+          <t>Género policíaco y misterio</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Salamandra Infantil y Juvenil</t>
+          <t>SALAMANDRA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Harry Potter</t>
+          <t>Narrativa</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -5044,70 +5032,66 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-18174-07-0</t>
+          <t xml:space="preserve"> 978-84-18107-25-2</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>9788418174070</t>
+          <t>9788418107252</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 235 x 159 mm.</t>
+          <t xml:space="preserve"> 230 x 155 mm.</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>656</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>12-11-2020</t>
+          <t>14-01-2021</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/la-armadura-del-rey_978-84-18557-33-0</t>
+          <t>https://www.todostuslibros.com/libros/el-paciente_978-84-666-6855-2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>La armadura del rey</t>
+          <t>El paciente</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Pardo de Vera, Ana / Calatrava, Albert / Hurtado, Eider</t>
+          <t>Gómez-Jurado, Juan</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Política y Gobierno</t>
+          <t>Obra de misterio y suspense</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Roca Editorial</t>
+          <t>B (Ediciones B)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>No Ficción</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -5127,54 +5111,54 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-18557-33-0</t>
+          <t xml:space="preserve"> 978-84-666-6855-2</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>9788418557330</t>
+          <t>9788466668552</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 235 x 150 mm.</t>
+          <t xml:space="preserve"> 236 x 161 mm.</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>496</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>18-03-2021</t>
+          <t>07-01-2021</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/las-ratitas-4-superaventura-entre-las-nubes_978-84-08-24014-3</t>
+          <t>https://www.todostuslibros.com/libros/anna-kadabra-5-la-isla-de-las-mascotas_978-84-08-23799-0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Las Ratitas 4. Superaventura entre las nubes</t>
+          <t>Anna Kadabra 5. La Isla de las Mascotas</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Ratitas, Las</t>
+          <t>Mañas, Pedro / Sierra Listón, David</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Edad de interés: a partir de 5 años</t>
+          <t>Edad de interés: a partir de 7 años</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5185,12 +5169,12 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Youtubers infantiles</t>
+          <t>Anna Kadabra</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -5210,74 +5194,78 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-08-24014-3</t>
+          <t xml:space="preserve"> 978-84-08-23799-0</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>9788408240143</t>
+          <t>9788408237990</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 215 x 150 mm.</t>
+          <t xml:space="preserve"> 200 x 140 mm.</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>358 gramos</t>
+          <t>282 gramos</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>128</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>24-03-2021</t>
+          <t>03-02-2021</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/niadela_978-84-17800-73-4</t>
+          <t>https://www.todostuslibros.com/libros/la-cancion-de-aquiles-adn_978-84-1362-213-2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Niadela</t>
+          <t>La canción de Aquiles (AdN)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Montañez, Beatriz</t>
+          <t>Miller, Madeline</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Memorias</t>
+          <t>MITOS Y LEYENDAS NARRADOS COMO FICCIÓN</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Errata Naturae Editores</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>Alianza Editorial</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pallarés Sanmiguel, José Miguel</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Libros salvajes</t>
+          <t>ALIANZA DE NOVELAS</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -5292,37 +5280,37 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Inglés</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-17800-73-4</t>
+          <t xml:space="preserve"> 978-84-1362-213-2</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>9788417800734</t>
+          <t>9788413622132</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 215 x 140 mm.</t>
+          <t xml:space="preserve"> 235 x 165 mm.</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>504 gramos</t>
+          <t>672 gramos</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>392</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>15-03-2021</t>
+          <t>04-03-2021</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -5507,42 +5495,46 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/los-compas-y-la-maldicion-de-mikecrack_978-84-270-4749-5</t>
+          <t>https://www.todostuslibros.com/libros/my-hero-academia-no-26_978-84-1341-584-0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Los Compas y la maldición de Mikecrack</t>
+          <t>My Hero Academia nº 26</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mikecrack, El Trollino y Timba Vk</t>
+          <t>Horikoshi, Kohei</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Edad de interés: a partir de 10 años</t>
+          <t>Cómics y novelas gráficas</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ediciones Martínez Roca</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Planeta Cómic</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Koike, Ayako</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>4You2</t>
+          <t>MANGA SHONEN</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -5557,79 +5549,79 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Japonés</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-270-4749-5</t>
+          <t xml:space="preserve"> 978-84-1341-584-0</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>9788427047495</t>
+          <t>9788413415840</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 150 mm.</t>
+          <t xml:space="preserve"> 177 x 111 mm.</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>740 gramos</t>
+          <t>216 gramos</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>200</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>29-10-2020</t>
+          <t>24-03-2021</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/anna-kadabra-5-la-isla-de-las-mascotas_978-84-08-23799-0</t>
+          <t>https://www.todostuslibros.com/libros/biografia-de-la-luz_978-84-18526-13-8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Anna Kadabra 5. La Isla de las Mascotas</t>
+          <t>Biografía de la luz</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mañas, Pedro / Sierra Listón, David</t>
+          <t>d'Ors, Pablo</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Edad de interés: a partir de 7 años</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Destino Infantil &amp; Juvenil</t>
+          <t>Galaxia Gutenberg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Anna Kadabra</t>
+          <t>Narrativa</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5649,77 +5641,69 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-08-23799-0</t>
+          <t xml:space="preserve"> 978-84-18526-13-8</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>9788408237990</t>
+          <t>9788418526138</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 200 x 140 mm.</t>
+          <t xml:space="preserve"> 220 x 145 mm.</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>282 gramos</t>
+          <t>590 gramos</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>576</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>03-02-2021</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>SIERRA LISTÓN, DAVID</t>
-        </is>
-      </c>
+          <t>10-02-2021</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/my-hero-academia-no-26_978-84-1341-584-0</t>
+          <t>https://www.todostuslibros.com/libros/niadela_978-84-17800-73-4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>My Hero Academia nº 26</t>
+          <t>Niadela</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Horikoshi, Kohei</t>
+          <t>Montañez, Beatriz</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cómics y novelas gráficas</t>
+          <t>Memorias</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Planeta Cómic</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Koike, Ayako</t>
-        </is>
-      </c>
+          <t>Errata Naturae Editores</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>MANGA SHONEN</t>
+          <t>Libros salvajes</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5739,74 +5723,74 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Japonés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-1341-584-0</t>
+          <t xml:space="preserve"> 978-84-17800-73-4</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>9788413415840</t>
+          <t>9788417800734</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 177 x 111 mm.</t>
+          <t xml:space="preserve"> 215 x 140 mm.</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>216 gramos</t>
+          <t>504 gramos</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>344</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>24-03-2021</t>
+          <t>15-03-2021</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/es-la-microbiota-idiota_978-84-1344-068-2</t>
+          <t>https://www.todostuslibros.com/libros/los-privilegios-del-angel_978-84-233-5868-7</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>¡Es la microbiota, idiota!</t>
+          <t>Los privilegios del ángel</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Arponen, Sari</t>
+          <t>Redondo, Dolores</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Familia y Salud</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Alienta Editorial</t>
+          <t>Booket</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sin colección</t>
+          <t>NF Novela</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5831,74 +5815,74 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-1344-068-2</t>
+          <t xml:space="preserve"> 978-84-233-5868-7</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>9788413440682</t>
+          <t>9788423358687</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 213 x 135 mm.</t>
+          <t xml:space="preserve"> 200 x 130 mm.</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>338 gramos</t>
+          <t>218 gramos</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>304</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>03-03-2021</t>
+          <t>13-01-2021</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/los-privilegios-del-angel_978-84-233-5868-7</t>
+          <t>https://www.todostuslibros.com/libros/las-ratitas-4-superaventura-entre-las-nubes_978-84-08-24014-3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Los privilegios del ángel</t>
+          <t>Las Ratitas 4. Superaventura entre las nubes</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Redondo, Dolores</t>
+          <t>Ratitas, Las</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Edad de interés: a partir de 5 años</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Booket</t>
+          <t>Destino Infantil &amp; Juvenil</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>NF Novela</t>
+          <t>Youtubers infantiles</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -5918,58 +5902,58 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-233-5868-7</t>
+          <t xml:space="preserve"> 978-84-08-24014-3</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>9788423358687</t>
+          <t>9788408240143</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 200 x 130 mm.</t>
+          <t xml:space="preserve"> 215 x 150 mm.</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>218 gramos</t>
+          <t>358 gramos</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>144</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>13-01-2021</t>
+          <t>24-03-2021</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/las-tinieblas-y-el-alba-la-precuela-de-los-pilares-de-la-tierra_978-84-01-02287-6</t>
+          <t>https://www.todostuslibros.com/libros/la-hora-de-las-gaviotas_978-84-01-02565-5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Las tinieblas y el alba (La precuela de Los pilares de la Tierra)</t>
+          <t>La hora de las gaviotas</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Follett, Ken</t>
+          <t>Martín, Ibon</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Género policíaco y misterio</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5980,12 +5964,12 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>EXITOS</t>
+          <t>PYJ</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -6000,79 +5984,75 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Inglés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-01-02287-6</t>
+          <t xml:space="preserve"> 978-84-01-02565-5</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>9788401022876</t>
+          <t>9788401025655</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 237 x 164 mm.</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>985 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 231 x 153 mm.</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>464</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>15-09-2020</t>
+          <t>14-01-2021</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-huerto-de-emerson_978-84-9066-848-1</t>
+          <t>https://www.todostuslibros.com/libros/los-compas-y-la-maldicion-de-mikecrack_978-84-270-4749-5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>El huerto de Emerson</t>
+          <t>Los Compas y la maldición de Mikecrack</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Landero, Luis</t>
+          <t>Mikecrack, El Trollino y Timba Vk</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Edad de interés: a partir de 10 años</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tusquets Editores</t>
+          <t>Ediciones Martínez Roca</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Andanzas</t>
+          <t>4You2</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -6092,32 +6072,32 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-9066-848-1</t>
+          <t xml:space="preserve"> 978-84-270-4749-5</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>9788490668481</t>
+          <t>9788427047495</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 225 x 148 mm.</t>
+          <t xml:space="preserve"> 230 x 150 mm.</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>352 gramos</t>
+          <t>740 gramos</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>224</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>03-02-2021</t>
+          <t>29-10-2020</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -6215,37 +6195,37 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/la-novia-gitana-la-novia-gitana-1_978-84-204-3318-9</t>
+          <t>https://www.todostuslibros.com/libros/invisible_978-84-16588-43-5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>La novia gitana (La novia gitana 1)</t>
+          <t>Invisible</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mola, Carmen</t>
+          <t>Moreno, Eloy</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Obra de misterio y suspense</t>
+          <t>Cuestiones personales y sociales: autoconocimiento y autoestima (infantil/juvenil)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ALFAGUARA</t>
+          <t>Nube de Tinta</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>La novia gitana</t>
+          <t>NUBE DE TINTA</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6265,74 +6245,70 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Inglés</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-204-3318-9</t>
+          <t xml:space="preserve"> 978-84-16588-43-5</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>9788420433189</t>
+          <t>9788416588435</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 238 x 155 mm.</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>628 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 212 x 141 mm.</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>304</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>17-05-2018</t>
+          <t>30-12-2020</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/trolardy-y-el-pan-dorado_978-84-270-4806-5</t>
+          <t>https://www.todostuslibros.com/libros/es-la-microbiota-idiota_978-84-1344-068-2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Trolardy y el pan dorado</t>
+          <t>¡Es la microbiota, idiota!</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Trolerotutos y Hardy</t>
+          <t>Arponen, Sari</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Edad de interés: a partir de 9 años</t>
+          <t>Familia y Salud</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ediciones Martínez Roca</t>
+          <t>Alienta Editorial</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>4You2</t>
+          <t>Sin colección</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6357,74 +6333,74 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-270-4806-5</t>
+          <t xml:space="preserve"> 978-84-1344-068-2</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>9788427048065</t>
+          <t>9788413440682</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 150 mm.</t>
+          <t xml:space="preserve"> 213 x 135 mm.</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>218 gramos</t>
+          <t>338 gramos</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>368</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>24-03-2021</t>
+          <t>03-03-2021</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/invisible_978-84-16588-43-5</t>
+          <t>https://www.todostuslibros.com/libros/las-tinieblas-y-el-alba-la-precuela-de-los-pilares-de-la-tierra_978-84-01-02287-6</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Invisible</t>
+          <t>Las tinieblas y el alba (La precuela de Los pilares de la Tierra)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Moreno, Eloy</t>
+          <t>Follett, Ken</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cuestiones personales y sociales: autoconocimiento y autoestima (infantil/juvenil)</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Nube de Tinta</t>
+          <t>PLAZA &amp; JANES</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>NUBE DE TINTA</t>
+          <t>EXITOS</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -6444,28 +6420,32 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-16588-43-5</t>
+          <t xml:space="preserve"> 978-84-01-02287-6</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>9788416588435</t>
+          <t>9788401022876</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 212 x 141 mm.</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr"/>
+          <t xml:space="preserve"> 237 x 164 mm.</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>985 gramos</t>
+        </is>
+      </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>936</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>30-12-2020</t>
+          <t>15-09-2020</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -6559,41 +6539,37 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-duque-y-yo-bridgerton-1_978-84-16327-81-2</t>
+          <t>https://www.todostuslibros.com/libros/la-novia-gitana-la-novia-gitana-1_978-84-204-3318-9</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>El duque y yo (Bridgerton 1)</t>
+          <t>La novia gitana (La novia gitana 1)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Quinn, Julia</t>
+          <t>Mola, Carmen</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Narrativa romántica histórica</t>
+          <t>Obra de misterio y suspense</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Titania</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Terés Loriente, Mireia</t>
-        </is>
-      </c>
+          <t>ALFAGUARA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Titania época</t>
+          <t>La novia gitana</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6613,79 +6589,83 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Inglés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-16327-81-2</t>
+          <t xml:space="preserve"> 978-84-204-3318-9</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>9788416327812</t>
+          <t>9788420433189</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 225 x 150 mm.</t>
+          <t xml:space="preserve"> 238 x 155 mm.</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>416 gramos</t>
+          <t>628 gramos</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>408</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>07-01-2020</t>
+          <t>17-05-2018</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/la-ciudad-de-vapor_978-84-08-23500-2</t>
+          <t>https://www.todostuslibros.com/libros/el-duque-y-yo-bridgerton-1_978-84-16327-81-2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>La Ciudad de Vapor</t>
+          <t>El duque y yo (Bridgerton 1)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ruiz Zafón, Carlos</t>
+          <t>Quinn, Julia</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Narrativa romántica histórica</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Editorial Planeta</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>Titania</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Terés Loriente, Mireia</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Autores Españoles e Iberoamericanos</t>
+          <t>Titania época</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -6700,74 +6680,74 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Inglés</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-08-23500-2</t>
+          <t xml:space="preserve"> 978-84-16327-81-2</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>9788408235002</t>
+          <t>9788416327812</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 150 mm.</t>
+          <t xml:space="preserve"> 225 x 150 mm.</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>406 gramos</t>
+          <t>416 gramos</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>320</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>17-11-2020</t>
+          <t>07-01-2020</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/la-anguila_978-84-339-9921-4</t>
+          <t>https://www.todostuslibros.com/libros/el-huerto-de-emerson_978-84-9066-848-1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>La anguila</t>
+          <t>El huerto de Emerson</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bonet, Paula</t>
+          <t>Landero, Luis</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS Y MATERIAS ARTÍSTICAS</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Editorial Anagrama</t>
+          <t>Tusquets Editores</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Narrativas hispánicas</t>
+          <t>Andanzas</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6792,58 +6772,58 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-339-9921-4</t>
+          <t xml:space="preserve"> 978-84-9066-848-1</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>9788433999214</t>
+          <t>9788490668481</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 x 14 mm.</t>
+          <t xml:space="preserve"> 225 x 148 mm.</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>326 gramos</t>
+          <t>352 gramos</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>240</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>24-03-2021</t>
+          <t>03-02-2021</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/la-buena-cocina_978-84-08-23455-5</t>
+          <t>https://www.todostuslibros.com/libros/la-reina-sola_978-84-08-22983-4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>La buena cocina</t>
+          <t>La reina sola</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Arguiñano, Karlos</t>
+          <t>Molist, Jorge</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Cocina por ingredientes</t>
+          <t>Ficción histórica</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6854,7 +6834,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Planeta Cocina</t>
+          <t>Autores Españoles e Iberoamericanos</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6879,32 +6859,32 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-08-23455-5</t>
+          <t xml:space="preserve"> 978-84-08-22983-4</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>9788408234555</t>
+          <t>9788408229834</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 255 x 190 mm.</t>
+          <t xml:space="preserve"> 230 x 150 mm.</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2214 gramos</t>
+          <t>834 gramos</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>624</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>10-11-2020</t>
+          <t>03-02-2021</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -6994,46 +6974,46 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/los-crimenes-de-la-carretera_978-84-233-5914-1</t>
+          <t>https://www.todostuslibros.com/libros/mirabella-y-la-escuela-de-magia-mirabella-2_978-84-204-4086-6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Los crímenes de la carretera</t>
+          <t>Mirabella y la escuela de magia (Mirabella 2)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Barker, J.D. / Patterson, James</t>
+          <t>Muncaster, Harriet</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Obra de misterio y suspense</t>
+          <t>Relatos sobre la familia y el hogar (infantil/juvenil)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ediciones Destino</t>
+          <t>ALFAGUARA</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hermoso Oliveras, Julio</t>
+          <t>Vanesa Pérez-Sauquillo Muñoz;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Áncora &amp; Delfín</t>
+          <t>Mirabella</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7053,69 +7033,65 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-233-5914-1</t>
+          <t xml:space="preserve"> 978-84-204-4086-6</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>9788423359141</t>
+          <t>9788420440866</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 133 mm.</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>610 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 209 x 147 mm.</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>160</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>17-03-2021</t>
+          <t>18-03-2021</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-demonio-de-arbennios_978-84-450-0967-3</t>
+          <t>https://www.todostuslibros.com/libros/trolardy-y-el-pan-dorado_978-84-270-4806-5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>El Demonio de Arbennios</t>
+          <t>Trolardy y el pan dorado</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Torelló López, Bernard</t>
+          <t>Trolerotutos y Hardy</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Fantasía</t>
+          <t>Edad de interés: a partir de 9 años</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Minotauro</t>
+          <t>Ediciones Martínez Roca</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>MINOTAURO</t>
+          <t>4You2</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7140,12 +7116,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-450-0967-3</t>
+          <t xml:space="preserve"> 978-84-270-4806-5</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>9788445009673</t>
+          <t>9788427048065</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -7155,12 +7131,12 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>364 gramos</t>
+          <t>218 gramos</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>192</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -7172,41 +7148,37 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/reina-roja_978-84-666-6441-7</t>
+          <t>https://www.todostuslibros.com/libros/la-ciudad-de-vapor_978-84-08-23500-2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Reina roja</t>
+          <t>La Ciudad de Vapor</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Gómez-Jurado, Juan</t>
+          <t>Ruiz Zafón, Carlos</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Género policíaco y misterio</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>B (Ediciones B)</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Francisco Ferriz Blanquer;</t>
-        </is>
-      </c>
+          <t>Editorial Planeta</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>LA TRAMA</t>
+          <t>Autores Españoles e Iberoamericanos</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7231,78 +7203,74 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-666-6441-7</t>
+          <t xml:space="preserve"> 978-84-08-23500-2</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>9788466664417</t>
+          <t>9788408235002</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 237 x 161 mm.</t>
+          <t xml:space="preserve"> 230 x 150 mm.</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>820 gramos</t>
+          <t>406 gramos</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>224</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>08-11-2018</t>
+          <t>17-11-2020</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/mirabella-y-la-escuela-de-magia-mirabella-2_978-84-204-4086-6</t>
+          <t>https://www.todostuslibros.com/libros/el-demonio-de-arbennios_978-84-450-0967-3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mirabella y la escuela de magia (Mirabella 2)</t>
+          <t>El Demonio de Arbennios</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Muncaster, Harriet</t>
+          <t>Torelló López, Bernard</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Relatos sobre la familia y el hogar (infantil/juvenil)</t>
+          <t>Fantasía</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ALFAGUARA</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Vanesa Pérez-Sauquillo Muñoz;</t>
-        </is>
-      </c>
+          <t>Minotauro</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Mirabella</t>
+          <t>MINOTAURO</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -7317,75 +7285,83 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Inglés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-204-4086-6</t>
+          <t xml:space="preserve"> 978-84-450-0967-3</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>9788420440866</t>
+          <t>9788445009673</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 209 x 147 mm.</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr"/>
+          <t xml:space="preserve"> 230 x 150 mm.</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>364 gramos</t>
+        </is>
+      </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>304</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>18-03-2021</t>
+          <t>24-03-2021</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/los-compas-y-el-diamantito-legendario-nueva-presentacion_978-84-270-4794-5</t>
+          <t>https://www.todostuslibros.com/libros/el-vizconde-que-me-amo-bridgerton-2_978-84-16327-82-9</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Los Compas y el diamantito legendario (nueva presentación)</t>
+          <t>El vizconde que me amó (Bridgerton 2)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mikecrack, El Trollino y Timba Vk</t>
+          <t>Quinn, Julia</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Edad de interés: a partir de 10 años</t>
+          <t>Narrativa romántica histórica</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Ediciones Martínez Roca</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
+          <t>Titania</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Arruti Illarramendi, Rosa</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>4You2</t>
+          <t>Titania época</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -7400,74 +7376,74 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Inglés</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-270-4794-5</t>
+          <t xml:space="preserve"> 978-84-16327-82-9</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>9788427047945</t>
+          <t>9788416327829</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 150 mm.</t>
+          <t xml:space="preserve"> 225 x 150 mm.</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>416 gramos</t>
+          <t>454 gramos</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>352</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>29-10-2020</t>
+          <t>07-01-2020</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-paciente_978-84-666-6855-2</t>
+          <t>https://www.todostuslibros.com/libros/los-compas-y-la-camara-del-tiempo_978-84-270-4737-2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>El paciente</t>
+          <t>Los Compas y la cámara del tiempo</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Gómez-Jurado, Juan</t>
+          <t>Mikecrack, El Trollino y Timba Vk</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Obra de misterio y suspense</t>
+          <t>Edad de interés: a partir de 8 años</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>B (Ediciones B)</t>
+          <t>Ediciones Martínez Roca</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>La Trama</t>
+          <t>4You2</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7492,28 +7468,32 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-666-6855-2</t>
+          <t xml:space="preserve"> 978-84-270-4737-2</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>9788466668552</t>
+          <t>9788427047372</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 236 x 161 mm.</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr"/>
+          <t xml:space="preserve"> 230 x 150 mm.</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>398 gramos</t>
+        </is>
+      </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>224</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>07-01-2021</t>
+          <t>09-06-2020</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -7611,37 +7591,37 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/los-compas-y-la-camara-del-tiempo_978-84-270-4737-2</t>
+          <t>https://www.todostuslibros.com/libros/la-buena-cocina_978-84-08-23455-5</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Los Compas y la cámara del tiempo</t>
+          <t>La buena cocina</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Mikecrack, El Trollino y Timba Vk</t>
+          <t>Arguiñano, Karlos</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Edad de interés: a partir de 8 años</t>
+          <t>Cocina por ingredientes</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Ediciones Martínez Roca</t>
+          <t>Editorial Planeta</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>4You2</t>
+          <t>Planeta Cocina</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -7666,74 +7646,74 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-270-4737-2</t>
+          <t xml:space="preserve"> 978-84-08-23455-5</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>9788427047372</t>
+          <t>9788408234555</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 150 mm.</t>
+          <t xml:space="preserve"> 255 x 190 mm.</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>398 gramos</t>
+          <t>2214 gramos</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>704</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>09-06-2020</t>
+          <t>10-11-2020</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/canto-jo-i-la-muntanya-balla_978-84-339-1568-9</t>
+          <t>https://www.todostuslibros.com/libros/rey-blanco_978-84-666-6854-5</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Canto jo i la muntanya balla</t>
+          <t>Rey blanco</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Solà Saez, Irene</t>
+          <t>Gómez-Jurado, Juan</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Obra de misterio y suspense</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Editorial Anagrama</t>
+          <t>B (Ediciones B)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Llibres Anagrama</t>
+          <t>LA TRAMA</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7748,53 +7728,53 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Catalán</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-339-1568-9</t>
+          <t xml:space="preserve"> 978-84-666-6854-5</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>9788433915689</t>
+          <t>9788466668545</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 x 14 mm.</t>
+          <t xml:space="preserve"> 238 x 162 mm.</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>262 gramos</t>
+          <t>900 gramos</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>528</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>08-05-2019</t>
+          <t>05-11-2020</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/rey-blanco_978-84-666-6854-5</t>
+          <t>https://www.todostuslibros.com/libros/reina-roja_978-84-666-6441-7</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Rey blanco</t>
+          <t>Reina roja</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -7804,7 +7784,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Obra de misterio y suspense</t>
+          <t>Género policíaco y misterio</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -7812,7 +7792,11 @@
           <t>B (Ediciones B)</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Francisco Ferriz Blanquer;</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
           <t>LA TRAMA</t>
@@ -7840,78 +7824,78 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-666-6854-5</t>
+          <t xml:space="preserve"> 978-84-666-6441-7</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>9788466668545</t>
+          <t>9788466664417</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 238 x 162 mm.</t>
+          <t xml:space="preserve"> 237 x 161 mm.</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>900 gramos</t>
+          <t>820 gramos</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>568</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>05-11-2020</t>
+          <t>08-11-2018</t>
         </is>
       </c>
       <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/perro-apestoso_978-84-17552-44-2</t>
+          <t>https://www.todostuslibros.com/libros/los-crimenes-de-la-carretera_978-84-233-5914-1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Perro Apestoso</t>
+          <t>Los crímenes de la carretera</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Gutman, Colas</t>
+          <t>Barker, J.D. / Patterson, James</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Relatos sobre animales (infantil/juvenil)</t>
+          <t>Obra de misterio y suspense</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Blackie Books</t>
+          <t>Ediciones Destino</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Martí, Jan</t>
+          <t>Hermoso Oliveras, Julio</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>BLACKIE LITTLE</t>
+          <t>Áncora &amp; Delfín</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7926,44 +7910,40 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Francés</t>
+          <t>Inglés</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-17552-44-2</t>
+          <t xml:space="preserve"> 978-84-233-5914-1</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>9788417552442</t>
+          <t>9788423359141</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 210 x 140 mm.</t>
+          <t xml:space="preserve"> 230 x 133 mm.</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>300 gramos</t>
+          <t>610 gramos</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>624</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>18-09-2019</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>Boutavant, Marc</t>
-        </is>
-      </c>
+          <t>17-03-2021</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -8058,42 +8038,42 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/delparaiso_978-84-670-6113-0</t>
+          <t>https://www.todostuslibros.com/libros/los-compas-y-el-diamantito-legendario-nueva-presentacion_978-84-270-4794-5</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Delparaíso</t>
+          <t>Los Compas y el diamantito legendario (nueva presentación)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Val, Juan del</t>
+          <t>Mikecrack, El Trollino y Timba Vk</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ficción moderna y contemporanea</t>
+          <t>Edad de interés: a partir de 10 años</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Espasa</t>
+          <t>Ediciones Martínez Roca</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>ESPASA NARRATIVA</t>
+          <t>4You2</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -8113,12 +8093,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-670-6113-0</t>
+          <t xml:space="preserve"> 978-84-270-4794-5</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>9788467061130</t>
+          <t>9788427047945</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -8128,63 +8108,63 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>526 gramos</t>
+          <t>416 gramos</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>240</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>07-01-2021</t>
+          <t>29-10-2020</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/sapiens-de-animales-a-dioses_978-84-9992-622-3</t>
+          <t>https://www.todostuslibros.com/libros/perro-apestoso_978-84-17552-44-2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sapiens. De animales a dioses</t>
+          <t>Perro Apestoso</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Harari, Yuval Noah</t>
+          <t>Gutman, Colas</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Historia general y mundial</t>
+          <t>Relatos sobre animales (infantil/juvenil)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>DEBATE</t>
+          <t>Blackie Books</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Joandomènec Ros i Aragonès;</t>
+          <t>Martí, Jan</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>DEBATE</t>
+          <t>BLACKIE LITTLE</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -8199,80 +8179,80 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Hebreo</t>
+          <t>Francés</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-9992-622-3</t>
+          <t xml:space="preserve"> 978-84-17552-44-2</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>9788499926223</t>
+          <t>9788417552442</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 229 x 155 mm.</t>
+          <t xml:space="preserve"> 210 x 140 mm.</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>640 gramos</t>
+          <t>300 gramos</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>64</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>07-10-2015</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr"/>
+          <t>18-09-2019</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Boutavant, Marc</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/un-instante-eterno_978-84-18436-63-5</t>
+          <t>https://www.todostuslibros.com/libros/el-hombre-en-busca-de-sentido_978-84-254-3202-6</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Un instante eterno</t>
+          <t>El hombre en busca de sentido</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Bruckner, Pascal</t>
+          <t>Frankl, Viktor Emil</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Filosofía social y política</t>
+          <t>Español / Castellano</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Siruela</t>
+          <t>Herder Editorial</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Talens, Jenaro</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Biblioteca de Ensayo / Serie mayor</t>
-        </is>
-      </c>
+          <t>COMITÉ DE TRADUCCIÓN AL ESPAÑO</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
           <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
@@ -8290,74 +8270,74 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Francés</t>
+          <t>Alemán</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-18436-63-5</t>
+          <t xml:space="preserve"> 978-84-254-3202-6</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>9788418436635</t>
+          <t>9788425432026</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 240 x 160 mm.</t>
+          <t xml:space="preserve"> 216 x 141 mm.</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>368 gramos</t>
+          <t>228 gramos</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>168</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>25-03-2021</t>
+          <t>04-12-2015</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/la-hora-de-las-gaviotas_978-84-01-02565-5</t>
+          <t>https://www.todostuslibros.com/libros/breve-tratado-sobre-la-estupidez-humana_978-84-17425-21-0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>La hora de las gaviotas</t>
+          <t>Breve tratado sobre la estupidez humana</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Martín, Ibon</t>
+          <t>Moreno Castillo, Ricardo</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Género policíaco y misterio</t>
+          <t>Filosofía social y política</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>PLAZA &amp; JANES</t>
+          <t>Fórcola Ediciones</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>PYJ</t>
+          <t>FCO. JAVIER JIMENEZ RUBIO</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8382,49 +8362,53 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-01-02565-5</t>
+          <t xml:space="preserve"> 978-84-17425-21-0</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>9788401025655</t>
+          <t>9788417425210</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 231 x 153 mm.</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr"/>
+          <t xml:space="preserve"> 180 x 120 mm.</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>140 gramos</t>
+        </is>
+      </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>120</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>14-01-2021</t>
+          <t>19-09-2018</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/una-rosa-sola_978-84-322-3786-7</t>
+          <t>https://www.todostuslibros.com/libros/canto-jo-i-la-muntanya-balla_978-84-339-1568-9</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Una rosa sola</t>
+          <t>Canto jo i la muntanya balla</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Barbery, Muriel</t>
+          <t>Solà Saez, Irene</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -8434,17 +8418,13 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Seix Barral</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>González-Gallarza, Isabel</t>
-        </is>
-      </c>
+          <t>Editorial Anagrama</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Biblioteca Formentor</t>
+          <t>Llibres Anagrama</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8464,27 +8444,27 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Francés</t>
+          <t>Catalán</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-322-3786-7</t>
+          <t xml:space="preserve"> 978-84-339-1568-9</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>9788432237867</t>
+          <t>9788433915689</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 133 mm.</t>
+          <t xml:space="preserve"> 22 x 14 mm.</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>328 gramos</t>
+          <t>262 gramos</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -8494,28 +8474,28 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>03-03-2021</t>
+          <t>08-05-2019</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/breve-tratado-sobre-la-estupidez-humana_978-84-17425-21-0</t>
+          <t>https://www.todostuslibros.com/libros/un-instante-eterno_978-84-18436-63-5</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Breve tratado sobre la estupidez humana</t>
+          <t>Un instante eterno</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Moreno Castillo, Ricardo</t>
+          <t>Bruckner, Pascal</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8525,13 +8505,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Fórcola Ediciones</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+          <t>Siruela</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Talens, Jenaro</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>FCO. JAVIER JIMENEZ RUBIO</t>
+          <t>Biblioteca de Ensayo / Serie mayor</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8551,78 +8535,74 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Francés</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-17425-21-0</t>
+          <t xml:space="preserve"> 978-84-18436-63-5</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>9788417425210</t>
+          <t>9788418436635</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 180 x 120 mm.</t>
+          <t xml:space="preserve"> 240 x 160 mm.</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>140 gramos</t>
+          <t>368 gramos</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>204</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>19-09-2018</t>
+          <t>25-03-2021</t>
         </is>
       </c>
       <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/furia-serie-crave-2_978-84-08-24011-2</t>
+          <t>https://www.todostuslibros.com/libros/delparaiso_978-84-670-6113-0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Furia (Serie Crave 2)</t>
+          <t>Delparaíso</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Wolff, Tracy</t>
+          <t>Val, Juan del</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ficción general (infantil/juvenil)</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Editorial Planeta</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Charques, Vicky</t>
-        </is>
-      </c>
+          <t>Espasa</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>PLANETA INTERNACIONAL</t>
+          <t>ESPASA NARRATIVA</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8642,17 +8622,17 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Inglés</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-08-24011-2</t>
+          <t xml:space="preserve"> 978-84-670-6113-0</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>9788408240112</t>
+          <t>9788467061130</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -8662,17 +8642,17 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>864 gramos</t>
+          <t>526 gramos</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>312</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>17-03-2021</t>
+          <t>07-01-2021</t>
         </is>
       </c>
       <c r="S94" t="inlineStr"/>
@@ -8766,42 +8746,46 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/la-reina-sola_978-84-08-22983-4</t>
+          <t>https://www.todostuslibros.com/libros/sapiens-de-animales-a-dioses_978-84-9992-622-3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>La reina sola</t>
+          <t>Sapiens. De animales a dioses</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Molist, Jorge</t>
+          <t>Harari, Yuval Noah</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ficción histórica</t>
+          <t>Historia general y mundial</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Editorial Planeta</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
+          <t>DEBATE</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Joandomènec Ros i Aragonès;</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Autores Españoles e Iberoamericanos</t>
+          <t>DEBATE</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -8816,63 +8800,63 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Hebreo</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-08-22983-4</t>
+          <t xml:space="preserve"> 978-84-9992-622-3</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>9788408229834</t>
+          <t>9788499926223</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 230 x 150 mm.</t>
+          <t xml:space="preserve"> 229 x 155 mm.</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>834 gramos</t>
+          <t>640 gramos</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>496</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>03-02-2021</t>
+          <t>07-10-2015</t>
         </is>
       </c>
       <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/aquitania_978-84-08-23551-4</t>
+          <t>https://www.todostuslibros.com/libros/furia-serie-crave-2_978-84-08-24011-2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Aquitania</t>
+          <t>Furia (Serie Crave 2)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>García Sáenz de Urturi, Eva</t>
+          <t>Wolff, Tracy</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Obra de misterio y suspense</t>
+          <t>Ficción general (infantil/juvenil)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -8880,15 +8864,15 @@
           <t>Editorial Planeta</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Autores Españoles e Iberoamericanos</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Charques, Vicky</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cartoné</t>
+          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -8903,17 +8887,17 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Inglés</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-08-23551-4</t>
+          <t xml:space="preserve"> 978-84-08-24011-2</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>9788408235514</t>
+          <t>9788408240112</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -8923,17 +8907,17 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>612 gramos</t>
+          <t>864 gramos</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>800</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>05-11-2020</t>
+          <t>17-03-2021</t>
         </is>
       </c>
       <c r="S97" t="inlineStr"/>
@@ -9031,37 +9015,41 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/la-red-de-proteccion-comisario-montalbano-30_978-84-18107-57-3</t>
+          <t>https://www.todostuslibros.com/libros/una-rosa-sola_978-84-322-3786-7</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>La red de protección (Comisario Montalbano 30)</t>
+          <t>Una rosa sola</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Camilleri, Andrea</t>
+          <t>Barbery, Muriel</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sicilia</t>
+          <t>Ficción moderna y contemporanea</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>SALAMANDRA</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
+          <t>Seix Barral</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>González-Gallarza, Isabel</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Comisario Montalbano</t>
+          <t>Biblioteca Formentor</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9081,74 +9069,74 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Italiano</t>
+          <t>Francés</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-18107-57-3</t>
+          <t xml:space="preserve"> 978-84-322-3786-7</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>9788418107573</t>
+          <t>9788432237867</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 220 x 140 mm.</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr"/>
+          <t xml:space="preserve"> 230 x 133 mm.</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>328 gramos</t>
+        </is>
+      </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>192</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>11-03-2021</t>
+          <t>03-03-2021</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-vizconde-que-me-amo-bridgerton-2_978-84-16327-82-9</t>
+          <t>https://www.todostuslibros.com/libros/la-red-de-proteccion-comisario-montalbano-30_978-84-18107-57-3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>El vizconde que me amó (Bridgerton 2)</t>
+          <t>La red de protección (Comisario Montalbano 30)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Quinn, Julia</t>
+          <t>Camilleri, Andrea</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Narrativa romántica histórica</t>
+          <t>Sicilia</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Titania</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Arruti Illarramendi, Rosa</t>
-        </is>
-      </c>
+          <t>SALAMANDRA</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Titania época</t>
+          <t>Comisario Montalbano</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9168,79 +9156,75 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Inglés</t>
+          <t>Italiano</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-16327-82-9</t>
+          <t xml:space="preserve"> 978-84-18107-57-3</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>9788416327829</t>
+          <t>9788418107573</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 225 x 150 mm.</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>454 gramos</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 220 x 140 mm.</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>272</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>07-01-2020</t>
+          <t>11-03-2021</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.todostuslibros.com/libros/el-hombre-en-busca-de-sentido_978-84-254-3202-6</t>
+          <t>https://www.todostuslibros.com/libros/aquitania_978-84-08-23551-4</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>El hombre en busca de sentido</t>
+          <t>Aquitania</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Frankl, Viktor Emil</t>
+          <t>García Sáenz de Urturi, Eva</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Español / Castellano</t>
+          <t>Obra de misterio y suspense</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Herder Editorial</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>COMITÉ DE TRADUCCIÓN AL ESPAÑO</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
+          <t>Editorial Planeta</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Autores Españoles e Iberoamericanos</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tapa blanda o Bolsillo</t>
+          <t xml:space="preserve"> Cartoné</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -9255,37 +9239,37 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Alemán</t>
+          <t>Español</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 978-84-254-3202-6</t>
+          <t xml:space="preserve"> 978-84-08-23551-4</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>9788425432026</t>
+          <t>9788408235514</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216 x 141 mm.</t>
+          <t xml:space="preserve"> 230 x 150 mm.</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>228 gramos</t>
+          <t>612 gramos</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>416</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>04-12-2015</t>
+          <t>05-11-2020</t>
         </is>
       </c>
       <c r="S101" t="inlineStr"/>
